--- a/P0107/09_FICHAS/VARDATOS_v0.xlsx
+++ b/P0107/09_FICHAS/VARDATOS_v0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28619"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0107/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="11_2BB520E6A7734B23132C4C2C556A375D797C1AC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6114D310-1B1C-4E95-AFC6-1DF09936C5AE}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_2BB520E6A7734B23132C4C2C556A375D797C1AC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43779BC3-8ADD-4ABF-A3A5-669F2FBD929D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20250" windowHeight="8280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -916,6 +916,9 @@
     <t>VR0045</t>
   </si>
   <si>
+    <t>Localización</t>
+  </si>
+  <si>
     <t>Esta variable hace referencia a la ubicación geográfica o espacial de un objeto, persona, o entidad dentro de un determinado contexto. Dependiendo del ámbito de aplicación, esta variable puede incluir coordenadas específicas como latitud y longitud, una dirección física, un nombre o incluso una región más amplia, como una ciudad, departamento o país.</t>
   </si>
   <si>
@@ -1117,300 +1120,303 @@
     <t>VR0065</t>
   </si>
   <si>
-    <t>V0136</t>
+    <t>V0130</t>
+  </si>
+  <si>
+    <t>Nivel de organización comunitaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta variable hace referencia a la estructura y los procesos mediante los cuales los miembros de una comunidad se agrupan y coordinan esfuerzos para abordar sus necesidades y mejorar su calidad de vida. Estas organizaciones pueden incluir grupos vecinales, asociaciones de padres, cooperativas, comités de salud, entre otros, y tienen como objetivo resolver problemas comunes, promover la participación activa y defender los derechos de la comunidad. </t>
+  </si>
+  <si>
+    <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su importancia radica en su capacidad para empoderar a los individuos, fortalecer la cohesión social, facilitar la toma de decisiones colectivas y promover el acceso a recursos y servicios esenciales, lo cual contribuye al desarrollo local y a la mejora de la resiliencia frente a desafíos sociales, económicos o ambientales.</t>
+  </si>
+  <si>
+    <t>VR0066</t>
+  </si>
+  <si>
+    <t>VR0067</t>
+  </si>
+  <si>
+    <t>VR0068</t>
+  </si>
+  <si>
+    <t>VR0069</t>
+  </si>
+  <si>
+    <t>V0039</t>
+  </si>
+  <si>
+    <t>Saneamiento básico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta variable se refiere al conjunto de servicios y condiciones que aseguran el acceso a agua potable, la recolección y disposición adecuada de aguas residuales y la gestión de residuos sólidos, con el fin de proteger la salud pública y el medio ambiente. Incluye infraestructuras como redes de alcantarillado, plantas de tratamiento de agua y de aguas residuales, así como la promoción de prácticas higiénicas en la comunidad. </t>
+  </si>
+  <si>
+    <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su importancia radica en su contribución a la prevención de enfermedades, la mejora de la calidad de vida y el bienestar general de las poblaciones, especialmente en áreas rurales y urbanas marginales. Un adecuado saneamiento básico es esencial para garantizar la salud pública, la conservación de los recursos hídricos y el desarrollo sostenible.</t>
+  </si>
+  <si>
+    <t>VR0070</t>
+  </si>
+  <si>
+    <t>V0131</t>
+  </si>
+  <si>
+    <t>Usos del suelo</t>
+  </si>
+  <si>
+    <t>Esta variable describe la forma en que se aprovecha y gestiona la superficie terrestre para diferentes actividades humanas, como la agricultura, la ganadería, la urbanización, la conservación ambiental y la infraestructura. Esta variable es clave para la planificación territorial, ya que permite evaluar la sostenibilidad de las prácticas productivas, el impacto ambiental de las actividades económicas y la disponibilidad de recursos naturales.</t>
+  </si>
+  <si>
+    <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su análisis contribuye a la toma de decisiones sobre ordenamiento territorial, desarrollo sostenible y mitigación de los efectos del cambio climático. Esta variable es input para modelos hidrogeológicos, hidrodinámicos e hidrológicos.</t>
+  </si>
+  <si>
+    <t>VR0071</t>
+  </si>
+  <si>
+    <t>VR0072</t>
+  </si>
+  <si>
+    <t>VR0073</t>
+  </si>
+  <si>
+    <t>VR0074</t>
+  </si>
+  <si>
+    <t>VR0075</t>
+  </si>
+  <si>
+    <t>VR0076</t>
+  </si>
+  <si>
+    <t>VR0077</t>
+  </si>
+  <si>
+    <t>VR0078</t>
+  </si>
+  <si>
+    <t>VR0079</t>
+  </si>
+  <si>
+    <t>VR0080</t>
+  </si>
+  <si>
+    <t>VR0081</t>
+  </si>
+  <si>
+    <t>VR0082</t>
+  </si>
+  <si>
+    <t>VR0083</t>
+  </si>
+  <si>
+    <t>VR0084</t>
+  </si>
+  <si>
+    <t>VR0085</t>
+  </si>
+  <si>
+    <t>VR0086</t>
+  </si>
+  <si>
+    <t>VR0087</t>
+  </si>
+  <si>
+    <t>VR0088</t>
+  </si>
+  <si>
+    <t>VR0089</t>
+  </si>
+  <si>
+    <t>VR0090</t>
+  </si>
+  <si>
+    <t>VR0091</t>
+  </si>
+  <si>
+    <t>VR0092</t>
+  </si>
+  <si>
+    <t>VR0093</t>
+  </si>
+  <si>
+    <t>VR0094</t>
+  </si>
+  <si>
+    <t>V0137</t>
+  </si>
+  <si>
+    <t>Área de ecosistemas estratégicos</t>
+  </si>
+  <si>
+    <t>Esta variable se refiere a los espacios geográficos que contienen ecosistemas de alto valor ambiental, cuya conservación es crucial para el mantenimiento de los servicios ecosistémicos esenciales, como la regulación del clima, la provisión de agua, la biodiversidad y la protección de suelos. Estos ecosistemas pueden incluir bosques, humedales, manglares, páramos y zonas costeras, entre otros.</t>
+  </si>
+  <si>
+    <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su imporancia radica en su capacidad para sostener procesos naturales que benefician tanto a los ecosistemas como a las comunidades humanas. La conservación de estas áreas es fundamental para mitigar los efectos del cambio climático, preservar la biodiversidad y garantizar la sostenibilidad de los recursos naturales a largo plazo.</t>
+  </si>
+  <si>
+    <t>VR0095</t>
+  </si>
+  <si>
+    <t>VR0096</t>
+  </si>
+  <si>
+    <t>VR0097</t>
+  </si>
+  <si>
+    <t>VR0098</t>
+  </si>
+  <si>
+    <t>VR0099</t>
+  </si>
+  <si>
+    <t>VR0100</t>
+  </si>
+  <si>
+    <t>VR0101</t>
+  </si>
+  <si>
+    <t>VR0102</t>
+  </si>
+  <si>
+    <t>VR0103</t>
+  </si>
+  <si>
+    <t>VR0104</t>
+  </si>
+  <si>
+    <t>VR0105</t>
+  </si>
+  <si>
+    <t>VR0106</t>
+  </si>
+  <si>
+    <t>VR0107</t>
+  </si>
+  <si>
+    <t>VR0108</t>
+  </si>
+  <si>
+    <t>VR0109</t>
+  </si>
+  <si>
+    <t>VR0110</t>
+  </si>
+  <si>
+    <t>VR0111</t>
+  </si>
+  <si>
+    <t>VR0112</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>Instantanea</t>
+  </si>
+  <si>
+    <t>Periodica</t>
+  </si>
+  <si>
+    <t>Variable de entrada</t>
+  </si>
+  <si>
+    <t>Variable de Salida</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Calidad del agua</t>
+  </si>
+  <si>
+    <t>Productividad primaria</t>
+  </si>
+  <si>
+    <t>Calidad del habitat</t>
+  </si>
+  <si>
+    <t>Diversidad biológica (fauna, flora, microorganismos)</t>
+  </si>
+  <si>
+    <t>Abundacia de peces de interés pesquero</t>
+  </si>
+  <si>
+    <t>Riqueza de especies de interés pesquero</t>
+  </si>
+  <si>
+    <t>Cianobacterias</t>
+  </si>
+  <si>
+    <t>Tasa de descomposición de la materia orgánica</t>
+  </si>
+  <si>
+    <t>Polinización</t>
+  </si>
+  <si>
+    <t>Dispersión de semillas</t>
+  </si>
+  <si>
+    <t>Riqueza de especies introducidas e invasoras</t>
+  </si>
+  <si>
+    <t>Diversidad genética</t>
+  </si>
+  <si>
+    <t>Demografía poblacional</t>
+  </si>
+  <si>
+    <t>Tasas de mortalidad</t>
+  </si>
+  <si>
+    <t>Tasas de natalidad</t>
+  </si>
+  <si>
+    <t>Composición de redes tróficas</t>
+  </si>
+  <si>
+    <t>Caudal</t>
+  </si>
+  <si>
+    <t>Niveles</t>
+  </si>
+  <si>
+    <t>Precipitación</t>
+  </si>
+  <si>
+    <t>Velocidad del agua</t>
+  </si>
+  <si>
+    <t>Profundidad del agua</t>
+  </si>
+  <si>
+    <t>Topografía</t>
+  </si>
+  <si>
+    <t>Nivel Piezométrico</t>
+  </si>
+  <si>
+    <t>Transporte de sedimentos</t>
+  </si>
+  <si>
+    <t>Contaminantes</t>
+  </si>
+  <si>
+    <t>Nutrientes</t>
+  </si>
+  <si>
+    <t>Espejo (mancha) de agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa de actores </t>
+  </si>
+  <si>
+    <t>Ingresos</t>
   </si>
   <si>
     <t>Organización Comunitaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Esta variable hace referencia a la estructura y los procesos mediante los cuales los miembros de una comunidad se agrupan y coordinan esfuerzos para abordar sus necesidades y mejorar su calidad de vida. Estas organizaciones pueden incluir grupos vecinales, asociaciones de padres, cooperativas, comités de salud, entre otros, y tienen como objetivo resolver problemas comunes, promover la participación activa y defender los derechos de la comunidad. </t>
-  </si>
-  <si>
-    <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su importancia radica en su capacidad para empoderar a los individuos, fortalecer la cohesión social, facilitar la toma de decisiones colectivas y promover el acceso a recursos y servicios esenciales, lo cual contribuye al desarrollo local y a la mejora de la resiliencia frente a desafíos sociales, económicos o ambientales.</t>
-  </si>
-  <si>
-    <t>VR0066</t>
-  </si>
-  <si>
-    <t>VR0067</t>
-  </si>
-  <si>
-    <t>VR0068</t>
-  </si>
-  <si>
-    <t>VR0069</t>
-  </si>
-  <si>
-    <t>V0039</t>
-  </si>
-  <si>
-    <t>Saneamiento básico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta variable se refiere al conjunto de servicios y condiciones que aseguran el acceso a agua potable, la recolección y disposición adecuada de aguas residuales y la gestión de residuos sólidos, con el fin de proteger la salud pública y el medio ambiente. Incluye infraestructuras como redes de alcantarillado, plantas de tratamiento de agua y de aguas residuales, así como la promoción de prácticas higiénicas en la comunidad. </t>
-  </si>
-  <si>
-    <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su importancia radica en su contribución a la prevención de enfermedades, la mejora de la calidad de vida y el bienestar general de las poblaciones, especialmente en áreas rurales y urbanas marginales. Un adecuado saneamiento básico es esencial para garantizar la salud pública, la conservación de los recursos hídricos y el desarrollo sostenible.</t>
-  </si>
-  <si>
-    <t>VR0070</t>
-  </si>
-  <si>
-    <t>V0131</t>
-  </si>
-  <si>
-    <t>Usos del suelo</t>
-  </si>
-  <si>
-    <t>Esta variable describe la forma en que se aprovecha y gestiona la superficie terrestre para diferentes actividades humanas, como la agricultura, la ganadería, la urbanización, la conservación ambiental y la infraestructura. Esta variable es clave para la planificación territorial, ya que permite evaluar la sostenibilidad de las prácticas productivas, el impacto ambiental de las actividades económicas y la disponibilidad de recursos naturales.</t>
-  </si>
-  <si>
-    <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su análisis contribuye a la toma de decisiones sobre ordenamiento territorial, desarrollo sostenible y mitigación de los efectos del cambio climático. Esta variable es input para modelos hidrogeológicos, hidrodinámicos e hidrológicos.</t>
-  </si>
-  <si>
-    <t>VR0071</t>
-  </si>
-  <si>
-    <t>VR0072</t>
-  </si>
-  <si>
-    <t>VR0073</t>
-  </si>
-  <si>
-    <t>VR0074</t>
-  </si>
-  <si>
-    <t>VR0075</t>
-  </si>
-  <si>
-    <t>VR0076</t>
-  </si>
-  <si>
-    <t>VR0077</t>
-  </si>
-  <si>
-    <t>VR0078</t>
-  </si>
-  <si>
-    <t>VR0079</t>
-  </si>
-  <si>
-    <t>VR0080</t>
-  </si>
-  <si>
-    <t>VR0081</t>
-  </si>
-  <si>
-    <t>VR0082</t>
-  </si>
-  <si>
-    <t>VR0083</t>
-  </si>
-  <si>
-    <t>VR0084</t>
-  </si>
-  <si>
-    <t>VR0085</t>
-  </si>
-  <si>
-    <t>VR0086</t>
-  </si>
-  <si>
-    <t>VR0087</t>
-  </si>
-  <si>
-    <t>VR0088</t>
-  </si>
-  <si>
-    <t>VR0089</t>
-  </si>
-  <si>
-    <t>VR0090</t>
-  </si>
-  <si>
-    <t>VR0091</t>
-  </si>
-  <si>
-    <t>VR0092</t>
-  </si>
-  <si>
-    <t>VR0093</t>
-  </si>
-  <si>
-    <t>VR0094</t>
-  </si>
-  <si>
-    <t>V0137</t>
-  </si>
-  <si>
-    <t>Área de ecosistemas estratégicos</t>
-  </si>
-  <si>
-    <t>Esta variable se refiere a los espacios geográficos que contienen ecosistemas de alto valor ambiental, cuya conservación es crucial para el mantenimiento de los servicios ecosistémicos esenciales, como la regulación del clima, la provisión de agua, la biodiversidad y la protección de suelos. Estos ecosistemas pueden incluir bosques, humedales, manglares, páramos y zonas costeras, entre otros.</t>
-  </si>
-  <si>
-    <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su imporancia radica en su capacidad para sostener procesos naturales que benefician tanto a los ecosistemas como a las comunidades humanas. La conservación de estas áreas es fundamental para mitigar los efectos del cambio climático, preservar la biodiversidad y garantizar la sostenibilidad de los recursos naturales a largo plazo.</t>
-  </si>
-  <si>
-    <t>VR0095</t>
-  </si>
-  <si>
-    <t>VR0096</t>
-  </si>
-  <si>
-    <t>VR0097</t>
-  </si>
-  <si>
-    <t>VR0098</t>
-  </si>
-  <si>
-    <t>VR0099</t>
-  </si>
-  <si>
-    <t>VR0100</t>
-  </si>
-  <si>
-    <t>VR0101</t>
-  </si>
-  <si>
-    <t>VR0102</t>
-  </si>
-  <si>
-    <t>VR0103</t>
-  </si>
-  <si>
-    <t>VR0104</t>
-  </si>
-  <si>
-    <t>VR0105</t>
-  </si>
-  <si>
-    <t>VR0106</t>
-  </si>
-  <si>
-    <t>VR0107</t>
-  </si>
-  <si>
-    <t>VR0108</t>
-  </si>
-  <si>
-    <t>VR0109</t>
-  </si>
-  <si>
-    <t>VR0110</t>
-  </si>
-  <si>
-    <t>VR0111</t>
-  </si>
-  <si>
-    <t>VR0112</t>
-  </si>
-  <si>
-    <t>Municipal</t>
-  </si>
-  <si>
-    <t>Instantanea</t>
-  </si>
-  <si>
-    <t>Periodica</t>
-  </si>
-  <si>
-    <t>Variable de entrada</t>
-  </si>
-  <si>
-    <t>Variable de Salida</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Calidad del agua</t>
-  </si>
-  <si>
-    <t>Productividad primaria</t>
-  </si>
-  <si>
-    <t>Calidad del habitat</t>
-  </si>
-  <si>
-    <t>Diversidad biológica (fauna, flora, microorganismos)</t>
-  </si>
-  <si>
-    <t>Abundacia de peces de interés pesquero</t>
-  </si>
-  <si>
-    <t>Riqueza de especies de interés pesquero</t>
-  </si>
-  <si>
-    <t>Cianobacterias</t>
-  </si>
-  <si>
-    <t>Tasa de descomposición de la materia orgánica</t>
-  </si>
-  <si>
-    <t>Polinización</t>
-  </si>
-  <si>
-    <t>Dispersión de semillas</t>
-  </si>
-  <si>
-    <t>Riqueza de especies introducidas e invasoras</t>
-  </si>
-  <si>
-    <t>Diversidad genética</t>
-  </si>
-  <si>
-    <t>Demografía poblacional</t>
-  </si>
-  <si>
-    <t>Tasas de mortalidad</t>
-  </si>
-  <si>
-    <t>Tasas de natalidad</t>
-  </si>
-  <si>
-    <t>Composición de redes tróficas</t>
-  </si>
-  <si>
-    <t>Caudal</t>
-  </si>
-  <si>
-    <t>Niveles</t>
-  </si>
-  <si>
-    <t>Precipitación</t>
-  </si>
-  <si>
-    <t>Velocidad del agua</t>
-  </si>
-  <si>
-    <t>Profundidad del agua</t>
-  </si>
-  <si>
-    <t>Topografía</t>
-  </si>
-  <si>
-    <t>Nivel Piezométrico</t>
-  </si>
-  <si>
-    <t>Transporte de sedimentos</t>
-  </si>
-  <si>
-    <t>Contaminantes</t>
-  </si>
-  <si>
-    <t>Nutrientes</t>
-  </si>
-  <si>
-    <t>Espejo (mancha) de agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapa de actores </t>
-  </si>
-  <si>
-    <t>Ingresos</t>
-  </si>
-  <si>
     <t>Participación social en la mitigación del riesgo</t>
   </si>
   <si>
@@ -1471,9 +1477,6 @@
     <t>Profundidad río-ciénagas</t>
   </si>
   <si>
-    <t>Nivel de organización comunitaria</t>
-  </si>
-  <si>
     <t>Valores sociales asignados a la naturaleza</t>
   </si>
   <si>
@@ -1550,9 +1553,6 @@
   </si>
   <si>
     <t>Otra</t>
-  </si>
-  <si>
-    <t>Localización</t>
   </si>
   <si>
     <t>Delimitación</t>
@@ -1565,7 +1565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,14 +1627,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1840,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1963,33 +1955,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1998,30 +1988,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2332,7 +2325,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" customWidth="1"/>
@@ -2340,7 +2333,7 @@
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2368,7 +2361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2371,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +2385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -2406,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -2420,7 +2413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
@@ -2434,7 +2427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
@@ -2448,7 +2441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
@@ -2462,7 +2455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
@@ -2476,7 +2469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
@@ -2490,7 +2483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="165">
       <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
@@ -2504,7 +2497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="19" t="s">
         <v>32</v>
       </c>
@@ -2518,8 +2511,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -2528,197 +2521,197 @@
       <c r="C14" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="62"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="68"/>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:4" ht="75">
+      <c r="A16" s="62"/>
       <c r="B16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="68"/>
     </row>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+    <row r="17" spans="1:4" ht="120">
+      <c r="A17" s="62"/>
       <c r="B17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="64"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="68"/>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="75">
       <c r="A18" s="59"/>
       <c r="B18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="65"/>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="62"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="62"/>
       <c r="B21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+    <row r="22" spans="1:4" ht="45">
+      <c r="A22" s="62"/>
       <c r="B22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+    <row r="23" spans="1:4" ht="45">
+      <c r="A23" s="62"/>
       <c r="B23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
     </row>
-    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="135">
       <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="58" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="62"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="67"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="62"/>
       <c r="B27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="28"/>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="60">
       <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="58" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="64" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="59"/>
-      <c r="B30" s="61"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="65"/>
       <c r="D30" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="66" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="59"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="58" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="59"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="68"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="30" t="s">
         <v>61</v>
       </c>
@@ -2728,7 +2721,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
         <v>63</v>
       </c>
@@ -2738,7 +2731,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="32" t="s">
         <v>65</v>
       </c>
@@ -2748,7 +2741,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
         <v>67</v>
       </c>
@@ -2758,7 +2751,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="32" t="s">
         <v>69</v>
       </c>
@@ -2768,7 +2761,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="32" t="s">
         <v>71</v>
       </c>
@@ -2778,7 +2771,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="32" t="s">
         <v>73</v>
       </c>
@@ -2788,7 +2781,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="34" t="s">
         <v>75</v>
       </c>
@@ -2798,7 +2791,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="35" t="s">
         <v>76</v>
       </c>
@@ -2808,7 +2801,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="35" t="s">
         <v>77</v>
       </c>
@@ -2818,7 +2811,7 @@
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="35" t="s">
         <v>78</v>
       </c>
@@ -2828,7 +2821,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="35" t="s">
         <v>79</v>
       </c>
@@ -2838,7 +2831,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="35" t="s">
         <v>80</v>
       </c>
@@ -2848,7 +2841,7 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="35" t="s">
         <v>81</v>
       </c>
@@ -2858,7 +2851,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="36" t="s">
         <v>82</v>
       </c>
@@ -2868,7 +2861,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="37" t="s">
         <v>83</v>
       </c>
@@ -2878,7 +2871,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="37" t="s">
         <v>84</v>
       </c>
@@ -2888,7 +2881,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="37" t="s">
         <v>85</v>
       </c>
@@ -2898,7 +2891,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="37" t="s">
         <v>86</v>
       </c>
@@ -2908,7 +2901,7 @@
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="37" t="s">
         <v>87</v>
       </c>
@@ -2918,7 +2911,7 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="37" t="s">
         <v>88</v>
       </c>
@@ -2928,7 +2921,7 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="38" t="s">
         <v>89</v>
       </c>
@@ -2938,7 +2931,7 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="39" t="s">
         <v>90</v>
       </c>
@@ -2948,7 +2941,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="39" t="s">
         <v>91</v>
       </c>
@@ -2958,7 +2951,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="39" t="s">
         <v>92</v>
       </c>
@@ -2968,7 +2961,7 @@
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="39" t="s">
         <v>93</v>
       </c>
@@ -2978,7 +2971,7 @@
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="39" t="s">
         <v>94</v>
       </c>
@@ -2988,7 +2981,7 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="39" t="s">
         <v>95</v>
       </c>
@@ -2998,7 +2991,7 @@
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="19" t="s">
         <v>96</v>
       </c>
@@ -3008,7 +3001,7 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
         <v>97</v>
       </c>
@@ -3018,7 +3011,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="40" t="s">
         <v>98</v>
       </c>
@@ -3028,7 +3021,7 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="40" t="s">
         <v>99</v>
       </c>
@@ -3038,7 +3031,7 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="40" t="s">
         <v>100</v>
       </c>
@@ -3048,7 +3041,7 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="40" t="s">
         <v>101</v>
       </c>
@@ -3058,7 +3051,7 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="40" t="s">
         <v>102</v>
       </c>
@@ -3068,7 +3061,7 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="30" t="s">
         <v>103</v>
       </c>
@@ -3078,7 +3071,7 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="32" t="s">
         <v>104</v>
       </c>
@@ -3088,7 +3081,7 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="32" t="s">
         <v>105</v>
       </c>
@@ -3098,7 +3091,7 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="32" t="s">
         <v>106</v>
       </c>
@@ -3108,7 +3101,7 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="32" t="s">
         <v>107</v>
       </c>
@@ -3118,7 +3111,7 @@
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="32" t="s">
         <v>108</v>
       </c>
@@ -3128,7 +3121,7 @@
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="32" t="s">
         <v>109</v>
       </c>
@@ -3138,7 +3131,7 @@
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="34" t="s">
         <v>110</v>
       </c>
@@ -3148,7 +3141,7 @@
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="35" t="s">
         <v>111</v>
       </c>
@@ -3158,7 +3151,7 @@
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="35" t="s">
         <v>112</v>
       </c>
@@ -3168,7 +3161,7 @@
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="35" t="s">
         <v>113</v>
       </c>
@@ -3178,7 +3171,7 @@
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="35" t="s">
         <v>114</v>
       </c>
@@ -3188,7 +3181,7 @@
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="35" t="s">
         <v>115</v>
       </c>
@@ -3198,7 +3191,7 @@
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="35" t="s">
         <v>116</v>
       </c>
@@ -3208,7 +3201,7 @@
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="36" t="s">
         <v>117</v>
       </c>
@@ -3218,7 +3211,7 @@
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="37" t="s">
         <v>118</v>
       </c>
@@ -3228,7 +3221,7 @@
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="37" t="s">
         <v>119</v>
       </c>
@@ -3238,7 +3231,7 @@
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="37" t="s">
         <v>120</v>
       </c>
@@ -3248,7 +3241,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="37" t="s">
         <v>121</v>
       </c>
@@ -3258,7 +3251,7 @@
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="37" t="s">
         <v>122</v>
       </c>
@@ -3268,7 +3261,7 @@
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="37" t="s">
         <v>123</v>
       </c>
@@ -3278,7 +3271,7 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="38" t="s">
         <v>124</v>
       </c>
@@ -3288,7 +3281,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="39" t="s">
         <v>125</v>
       </c>
@@ -3298,7 +3291,7 @@
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="39" t="s">
         <v>126</v>
       </c>
@@ -3308,7 +3301,7 @@
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="39" t="s">
         <v>127</v>
       </c>
@@ -3318,7 +3311,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="39" t="s">
         <v>128</v>
       </c>
@@ -3328,7 +3321,7 @@
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="39" t="s">
         <v>129</v>
       </c>
@@ -3338,7 +3331,7 @@
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="39" t="s">
         <v>130</v>
       </c>
@@ -3348,7 +3341,7 @@
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="5" t="s">
         <v>131</v>
       </c>
@@ -3364,6 +3357,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -3375,12 +3374,6 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3390,11 +3383,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -3403,7 +3396,7 @@
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3651,14 +3644,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82">
       <c r="A2" t="s">
         <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D2" t="s">
@@ -3899,14 +3892,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82">
       <c r="A3" t="s">
         <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D3" t="s">
@@ -4147,14 +4140,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82">
       <c r="A4" t="s">
         <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D4" t="s">
@@ -4395,14 +4388,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82">
       <c r="A5" t="s">
         <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D5" t="s">
@@ -4643,14 +4636,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82">
       <c r="A6" t="s">
         <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D6" t="s">
@@ -4891,14 +4884,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82">
       <c r="A7" t="s">
         <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D7" t="s">
@@ -5139,14 +5132,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82">
       <c r="A8" t="s">
         <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D8" t="s">
@@ -5387,14 +5380,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82">
       <c r="A9" t="s">
         <v>135</v>
       </c>
       <c r="B9" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>175</v>
       </c>
       <c r="D9" t="s">
@@ -5635,14 +5628,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82">
       <c r="A10" t="s">
         <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D10" t="s">
@@ -5883,14 +5876,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82">
       <c r="A11" t="s">
         <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D11" t="s">
@@ -6131,14 +6124,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82">
       <c r="A12" t="s">
         <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D12" t="s">
@@ -6379,14 +6372,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82">
       <c r="A13" t="s">
         <v>135</v>
       </c>
       <c r="B13" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D13" t="s">
@@ -6627,14 +6620,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82">
       <c r="A14" t="s">
         <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D14" t="s">
@@ -6875,14 +6868,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82">
       <c r="A15" t="s">
         <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D15" t="s">
@@ -7123,14 +7116,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82">
       <c r="A16" t="s">
         <v>135</v>
       </c>
       <c r="B16" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D16" t="s">
@@ -7371,14 +7364,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82">
       <c r="A17" t="s">
         <v>135</v>
       </c>
       <c r="B17" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D17" t="s">
@@ -7619,14 +7612,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82">
       <c r="A18" t="s">
         <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D18" t="s">
@@ -7863,18 +7856,18 @@
       <c r="CC18" t="s">
         <v>17</v>
       </c>
-      <c r="CD18" s="56" t="s">
+      <c r="CD18" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82">
       <c r="A19" t="s">
         <v>135</v>
       </c>
       <c r="B19" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D19" t="s">
@@ -8111,18 +8104,18 @@
       <c r="CC19" t="s">
         <v>17</v>
       </c>
-      <c r="CD19" s="56" t="s">
+      <c r="CD19" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82">
       <c r="A20" t="s">
         <v>135</v>
       </c>
       <c r="B20" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D20" t="s">
@@ -8359,18 +8352,18 @@
       <c r="CC20" t="s">
         <v>17</v>
       </c>
-      <c r="CD20" s="56" t="s">
+      <c r="CD20" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82">
       <c r="A21" t="s">
         <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D21" t="s">
@@ -8607,18 +8600,18 @@
       <c r="CC21" t="s">
         <v>17</v>
       </c>
-      <c r="CD21" s="56" t="s">
+      <c r="CD21" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82">
       <c r="A22" t="s">
         <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D22" t="s">
@@ -8855,18 +8848,18 @@
       <c r="CC22" t="s">
         <v>17</v>
       </c>
-      <c r="CD22" s="56" t="s">
+      <c r="CD22" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82">
       <c r="A23" t="s">
         <v>135</v>
       </c>
       <c r="B23" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D23" t="s">
@@ -9103,18 +9096,18 @@
       <c r="CC23" t="s">
         <v>17</v>
       </c>
-      <c r="CD23" s="56" t="s">
+      <c r="CD23" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82">
       <c r="A24" t="s">
         <v>135</v>
       </c>
       <c r="B24" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D24" t="s">
@@ -9351,18 +9344,18 @@
       <c r="CC24" t="s">
         <v>17</v>
       </c>
-      <c r="CD24" s="56" t="s">
+      <c r="CD24" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82">
       <c r="A25" t="s">
         <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D25" t="s">
@@ -9599,18 +9592,18 @@
       <c r="CC25" t="s">
         <v>17</v>
       </c>
-      <c r="CD25" s="56" t="s">
+      <c r="CD25" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82">
       <c r="A26" t="s">
         <v>135</v>
       </c>
       <c r="B26" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D26" t="s">
@@ -9847,18 +9840,18 @@
       <c r="CC26" t="s">
         <v>17</v>
       </c>
-      <c r="CD26" s="56" t="s">
+      <c r="CD26" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82">
       <c r="A27" t="s">
         <v>135</v>
       </c>
       <c r="B27" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D27" t="s">
@@ -10095,18 +10088,18 @@
       <c r="CC27" t="s">
         <v>17</v>
       </c>
-      <c r="CD27" s="56" t="s">
+      <c r="CD27" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82">
       <c r="A28" t="s">
         <v>135</v>
       </c>
       <c r="B28" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D28" t="s">
@@ -10343,18 +10336,18 @@
       <c r="CC28" t="s">
         <v>17</v>
       </c>
-      <c r="CD28" s="56" t="s">
+      <c r="CD28" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82">
       <c r="A29" t="s">
         <v>135</v>
       </c>
       <c r="B29" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D29" t="s">
@@ -10591,18 +10584,18 @@
       <c r="CC29" t="s">
         <v>17</v>
       </c>
-      <c r="CD29" s="56" t="s">
+      <c r="CD29" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82">
       <c r="A30" t="s">
         <v>135</v>
       </c>
       <c r="B30" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D30" t="s">
@@ -10839,18 +10832,18 @@
       <c r="CC30" t="s">
         <v>17</v>
       </c>
-      <c r="CD30" s="56" t="s">
+      <c r="CD30" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82">
       <c r="A31" t="s">
         <v>135</v>
       </c>
       <c r="B31" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D31" t="s">
@@ -11087,18 +11080,18 @@
       <c r="CC31" t="s">
         <v>17</v>
       </c>
-      <c r="CD31" s="56" t="s">
+      <c r="CD31" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:82">
       <c r="A32" t="s">
         <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D32" t="s">
@@ -11335,18 +11328,18 @@
       <c r="CC32" t="s">
         <v>17</v>
       </c>
-      <c r="CD32" s="56" t="s">
+      <c r="CD32" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:82">
       <c r="A33" t="s">
         <v>135</v>
       </c>
       <c r="B33" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D33" t="s">
@@ -11583,18 +11576,18 @@
       <c r="CC33" t="s">
         <v>17</v>
       </c>
-      <c r="CD33" s="56" t="s">
+      <c r="CD33" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:82">
       <c r="A34" t="s">
         <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D34" t="s">
@@ -11831,18 +11824,18 @@
       <c r="CC34" t="s">
         <v>17</v>
       </c>
-      <c r="CD34" s="56" t="s">
+      <c r="CD34" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:82">
       <c r="A35" t="s">
         <v>135</v>
       </c>
       <c r="B35" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D35" t="s">
@@ -12079,18 +12072,18 @@
       <c r="CC35" t="s">
         <v>17</v>
       </c>
-      <c r="CD35" s="56" t="s">
+      <c r="CD35" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:82">
       <c r="A36" t="s">
         <v>135</v>
       </c>
       <c r="B36" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D36" t="s">
@@ -12327,18 +12320,18 @@
       <c r="CC36" t="s">
         <v>17</v>
       </c>
-      <c r="CD36" s="56" t="s">
+      <c r="CD36" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:82">
       <c r="A37" t="s">
         <v>135</v>
       </c>
       <c r="B37" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="54" t="s">
         <v>239</v>
       </c>
       <c r="D37" t="s">
@@ -12575,18 +12568,18 @@
       <c r="CC37" t="s">
         <v>17</v>
       </c>
-      <c r="CD37" s="56" t="s">
+      <c r="CD37" s="55" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:82">
       <c r="A38" t="s">
         <v>135</v>
       </c>
       <c r="B38" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="54" t="s">
         <v>239</v>
       </c>
       <c r="D38" t="s">
@@ -12823,21 +12816,21 @@
       <c r="CC38" t="s">
         <v>17</v>
       </c>
-      <c r="CD38" s="56" t="s">
+      <c r="CD38" s="55" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:82">
       <c r="A39" t="s">
         <v>135</v>
       </c>
       <c r="B39" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="56" t="s">
         <v>248</v>
       </c>
       <c r="E39" t="s">
@@ -13071,21 +13064,21 @@
       <c r="CC39" t="s">
         <v>17</v>
       </c>
-      <c r="CD39" s="56" t="s">
+      <c r="CD39" s="55" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:82">
       <c r="A40" t="s">
         <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="56" t="s">
         <v>248</v>
       </c>
       <c r="E40" t="s">
@@ -13319,18 +13312,18 @@
       <c r="CC40" t="s">
         <v>17</v>
       </c>
-      <c r="CD40" s="56" t="s">
+      <c r="CD40" s="55" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:82">
       <c r="A41" t="s">
         <v>135</v>
       </c>
       <c r="B41" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="53" t="s">
         <v>253</v>
       </c>
       <c r="D41" t="s">
@@ -13567,18 +13560,18 @@
       <c r="CC41" t="s">
         <v>17</v>
       </c>
-      <c r="CD41" s="56" t="s">
+      <c r="CD41" s="55" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:82">
       <c r="A42" t="s">
         <v>135</v>
       </c>
       <c r="B42" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="52" t="s">
         <v>262</v>
       </c>
       <c r="D42" t="s">
@@ -13815,18 +13808,18 @@
       <c r="CC42" t="s">
         <v>17</v>
       </c>
-      <c r="CD42" s="56" t="s">
+      <c r="CD42" s="55" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:82">
       <c r="A43" t="s">
         <v>135</v>
       </c>
       <c r="B43" t="s">
         <v>266</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="52" t="s">
         <v>262</v>
       </c>
       <c r="D43" t="s">
@@ -14063,18 +14056,18 @@
       <c r="CC43" t="s">
         <v>17</v>
       </c>
-      <c r="CD43" s="56" t="s">
+      <c r="CD43" s="55" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:82">
       <c r="A44" t="s">
         <v>135</v>
       </c>
       <c r="B44" t="s">
         <v>267</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="52" t="s">
         <v>262</v>
       </c>
       <c r="D44" t="s">
@@ -14311,18 +14304,18 @@
       <c r="CC44" t="s">
         <v>17</v>
       </c>
-      <c r="CD44" s="56" t="s">
+      <c r="CD44" s="55" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:82">
       <c r="A45" t="s">
         <v>135</v>
       </c>
       <c r="B45" t="s">
         <v>268</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="53" t="s">
         <v>269</v>
       </c>
       <c r="D45" t="s">
@@ -14559,11 +14552,11 @@
       <c r="CC45" t="s">
         <v>17</v>
       </c>
-      <c r="CD45" s="56" t="s">
+      <c r="CD45" s="55" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:82">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -14574,13 +14567,13 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G46" t="s">
         <v>140</v>
@@ -14607,10 +14600,10 @@
         <v>17</v>
       </c>
       <c r="O46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q46" t="s">
         <v>17</v>
@@ -14628,10 +14621,10 @@
         <v>17</v>
       </c>
       <c r="V46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X46" t="s">
         <v>17</v>
@@ -14673,7 +14666,7 @@
         <v>179</v>
       </c>
       <c r="AK46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL46" t="s">
         <v>17</v>
@@ -14715,7 +14708,7 @@
         <v>179</v>
       </c>
       <c r="AY46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AZ46" t="s">
         <v>17</v>
@@ -14733,7 +14726,7 @@
         <v>17</v>
       </c>
       <c r="BE46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BF46" t="s">
         <v>218</v>
@@ -14754,10 +14747,10 @@
         <v>17</v>
       </c>
       <c r="BL46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BM46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BN46" t="s">
         <v>17</v>
@@ -14796,10 +14789,10 @@
         <v>17</v>
       </c>
       <c r="BZ46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CA46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CB46" t="s">
         <v>17</v>
@@ -14807,28 +14800,28 @@
       <c r="CC46" t="s">
         <v>17</v>
       </c>
-      <c r="CD46" s="56" t="s">
-        <v>284</v>
+      <c r="CD46" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:82">
       <c r="A47" t="s">
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G47" t="s">
         <v>140</v>
@@ -14855,10 +14848,10 @@
         <v>17</v>
       </c>
       <c r="O47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P47" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q47" t="s">
         <v>17</v>
@@ -14876,10 +14869,10 @@
         <v>17</v>
       </c>
       <c r="V47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X47" t="s">
         <v>17</v>
@@ -14897,10 +14890,10 @@
         <v>17</v>
       </c>
       <c r="AC47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AD47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AE47" t="s">
         <v>17</v>
@@ -14918,10 +14911,10 @@
         <v>17</v>
       </c>
       <c r="AJ47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL47" t="s">
         <v>17</v>
@@ -14939,10 +14932,10 @@
         <v>17</v>
       </c>
       <c r="AQ47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AR47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AS47" t="s">
         <v>17</v>
@@ -14960,10 +14953,10 @@
         <v>17</v>
       </c>
       <c r="AX47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AY47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AZ47" t="s">
         <v>17</v>
@@ -14981,10 +14974,10 @@
         <v>17</v>
       </c>
       <c r="BE47" t="s">
+        <v>292</v>
+      </c>
+      <c r="BF47" t="s">
         <v>291</v>
-      </c>
-      <c r="BF47" t="s">
-        <v>290</v>
       </c>
       <c r="BG47" t="s">
         <v>17</v>
@@ -15002,10 +14995,10 @@
         <v>17</v>
       </c>
       <c r="BL47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BM47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BN47" t="s">
         <v>17</v>
@@ -15023,10 +15016,10 @@
         <v>17</v>
       </c>
       <c r="BS47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BT47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BU47" t="s">
         <v>17</v>
@@ -15044,10 +15037,10 @@
         <v>17</v>
       </c>
       <c r="BZ47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="CA47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="CB47" t="s">
         <v>17</v>
@@ -15055,28 +15048,28 @@
       <c r="CC47" t="s">
         <v>17</v>
       </c>
-      <c r="CD47" s="56" t="s">
-        <v>284</v>
+      <c r="CD47" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:82">
       <c r="A48" t="s">
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G48" t="s">
         <v>140</v>
@@ -15103,10 +15096,10 @@
         <v>17</v>
       </c>
       <c r="O48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q48" t="s">
         <v>17</v>
@@ -15124,10 +15117,10 @@
         <v>17</v>
       </c>
       <c r="V48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X48" t="s">
         <v>17</v>
@@ -15145,10 +15138,10 @@
         <v>17</v>
       </c>
       <c r="AC48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AE48" t="s">
         <v>17</v>
@@ -15169,7 +15162,7 @@
         <v>272</v>
       </c>
       <c r="AK48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL48" t="s">
         <v>17</v>
@@ -15190,7 +15183,7 @@
         <v>272</v>
       </c>
       <c r="AR48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AS48" t="s">
         <v>17</v>
@@ -15211,7 +15204,7 @@
         <v>272</v>
       </c>
       <c r="AY48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AZ48" t="s">
         <v>17</v>
@@ -15232,7 +15225,7 @@
         <v>272</v>
       </c>
       <c r="BF48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BG48" t="s">
         <v>17</v>
@@ -15250,10 +15243,10 @@
         <v>17</v>
       </c>
       <c r="BL48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BM48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN48" t="s">
         <v>17</v>
@@ -15271,10 +15264,10 @@
         <v>17</v>
       </c>
       <c r="BS48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BT48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BU48" t="s">
         <v>17</v>
@@ -15292,10 +15285,10 @@
         <v>17</v>
       </c>
       <c r="BZ48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="CA48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CB48" t="s">
         <v>17</v>
@@ -15303,28 +15296,28 @@
       <c r="CC48" t="s">
         <v>17</v>
       </c>
-      <c r="CD48" s="56" t="s">
-        <v>284</v>
+      <c r="CD48" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:82">
       <c r="A49" t="s">
         <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G49" t="s">
         <v>140</v>
@@ -15351,10 +15344,10 @@
         <v>17</v>
       </c>
       <c r="O49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q49" t="s">
         <v>17</v>
@@ -15372,10 +15365,10 @@
         <v>17</v>
       </c>
       <c r="V49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X49" t="s">
         <v>17</v>
@@ -15393,10 +15386,10 @@
         <v>17</v>
       </c>
       <c r="AC49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AD49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AE49" t="s">
         <v>17</v>
@@ -15414,10 +15407,10 @@
         <v>17</v>
       </c>
       <c r="AJ49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL49" t="s">
         <v>17</v>
@@ -15435,7 +15428,7 @@
         <v>17</v>
       </c>
       <c r="AQ49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AR49" t="s">
         <v>218</v>
@@ -15456,10 +15449,10 @@
         <v>17</v>
       </c>
       <c r="AX49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AY49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AZ49" t="s">
         <v>17</v>
@@ -15477,10 +15470,10 @@
         <v>17</v>
       </c>
       <c r="BE49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BF49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BG49" t="s">
         <v>17</v>
@@ -15498,10 +15491,10 @@
         <v>17</v>
       </c>
       <c r="BL49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BM49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN49" t="s">
         <v>17</v>
@@ -15519,10 +15512,10 @@
         <v>17</v>
       </c>
       <c r="BS49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BT49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BU49" t="s">
         <v>17</v>
@@ -15540,10 +15533,10 @@
         <v>17</v>
       </c>
       <c r="BZ49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="CA49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="CB49" t="s">
         <v>17</v>
@@ -15551,28 +15544,28 @@
       <c r="CC49" t="s">
         <v>17</v>
       </c>
-      <c r="CD49" s="56" t="s">
-        <v>284</v>
+      <c r="CD49" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:82">
       <c r="A50" t="s">
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G50" t="s">
         <v>140</v>
@@ -15599,10 +15592,10 @@
         <v>17</v>
       </c>
       <c r="O50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q50" t="s">
         <v>17</v>
@@ -15623,7 +15616,7 @@
         <v>186</v>
       </c>
       <c r="W50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X50" t="s">
         <v>17</v>
@@ -15644,7 +15637,7 @@
         <v>186</v>
       </c>
       <c r="AD50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AE50" t="s">
         <v>17</v>
@@ -15665,7 +15658,7 @@
         <v>186</v>
       </c>
       <c r="AK50" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL50" t="s">
         <v>17</v>
@@ -15686,7 +15679,7 @@
         <v>186</v>
       </c>
       <c r="AR50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AS50" t="s">
         <v>17</v>
@@ -15704,10 +15697,10 @@
         <v>17</v>
       </c>
       <c r="AX50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AY50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AZ50" t="s">
         <v>17</v>
@@ -15725,10 +15718,10 @@
         <v>17</v>
       </c>
       <c r="BE50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BF50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BG50" t="s">
         <v>17</v>
@@ -15746,10 +15739,10 @@
         <v>17</v>
       </c>
       <c r="BL50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BM50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BN50" t="s">
         <v>17</v>
@@ -15767,10 +15760,10 @@
         <v>17</v>
       </c>
       <c r="BS50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BT50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BU50" t="s">
         <v>17</v>
@@ -15788,10 +15781,10 @@
         <v>17</v>
       </c>
       <c r="BZ50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CA50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="CB50" t="s">
         <v>17</v>
@@ -15799,28 +15792,28 @@
       <c r="CC50" t="s">
         <v>17</v>
       </c>
-      <c r="CD50" s="56" t="s">
-        <v>284</v>
+      <c r="CD50" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:82">
       <c r="A51" t="s">
         <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G51" t="s">
         <v>140</v>
@@ -15847,10 +15840,10 @@
         <v>17</v>
       </c>
       <c r="O51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P51" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q51" t="s">
         <v>17</v>
@@ -15868,10 +15861,10 @@
         <v>17</v>
       </c>
       <c r="V51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X51" t="s">
         <v>17</v>
@@ -16047,28 +16040,28 @@
       <c r="CC51" t="s">
         <v>17</v>
       </c>
-      <c r="CD51" s="56" t="s">
-        <v>284</v>
+      <c r="CD51" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:82">
       <c r="A52" t="s">
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G52" t="s">
         <v>140</v>
@@ -16098,7 +16091,7 @@
         <v>145</v>
       </c>
       <c r="P52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q52" t="s">
         <v>17</v>
@@ -16119,7 +16112,7 @@
         <v>145</v>
       </c>
       <c r="W52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X52" t="s">
         <v>17</v>
@@ -16140,7 +16133,7 @@
         <v>145</v>
       </c>
       <c r="AD52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AE52" t="s">
         <v>17</v>
@@ -16295,28 +16288,28 @@
       <c r="CC52" t="s">
         <v>17</v>
       </c>
-      <c r="CD52" s="56" t="s">
-        <v>284</v>
+      <c r="CD52" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:82">
       <c r="A53" t="s">
         <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E53" t="s">
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G53" t="s">
         <v>140</v>
@@ -16346,7 +16339,7 @@
         <v>217</v>
       </c>
       <c r="P53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q53" t="s">
         <v>17</v>
@@ -16543,28 +16536,28 @@
       <c r="CC53" t="s">
         <v>17</v>
       </c>
-      <c r="CD53" s="56" t="s">
-        <v>284</v>
+      <c r="CD53" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:82">
       <c r="A54" t="s">
         <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G54" t="s">
         <v>140</v>
@@ -16591,10 +16584,10 @@
         <v>17</v>
       </c>
       <c r="O54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q54" t="s">
         <v>17</v>
@@ -16612,10 +16605,10 @@
         <v>17</v>
       </c>
       <c r="V54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="X54" t="s">
         <v>17</v>
@@ -16633,7 +16626,7 @@
         <v>17</v>
       </c>
       <c r="AC54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AD54" t="s">
         <v>227</v>
@@ -16654,10 +16647,10 @@
         <v>17</v>
       </c>
       <c r="AJ54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK54" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL54" t="s">
         <v>17</v>
@@ -16675,10 +16668,10 @@
         <v>17</v>
       </c>
       <c r="AQ54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AR54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AS54" t="s">
         <v>17</v>
@@ -16696,10 +16689,10 @@
         <v>17</v>
       </c>
       <c r="AX54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AY54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AZ54" t="s">
         <v>17</v>
@@ -16720,7 +16713,7 @@
         <v>206</v>
       </c>
       <c r="BF54" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BG54" t="s">
         <v>17</v>
@@ -16741,7 +16734,7 @@
         <v>206</v>
       </c>
       <c r="BM54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BN54" t="s">
         <v>17</v>
@@ -16762,7 +16755,7 @@
         <v>206</v>
       </c>
       <c r="BT54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BU54" t="s">
         <v>17</v>
@@ -16783,7 +16776,7 @@
         <v>193</v>
       </c>
       <c r="CA54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CB54" t="s">
         <v>17</v>
@@ -16791,28 +16784,28 @@
       <c r="CC54" t="s">
         <v>17</v>
       </c>
-      <c r="CD54" s="56" t="s">
-        <v>284</v>
+      <c r="CD54" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:82">
       <c r="A55" t="s">
         <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G55" t="s">
         <v>140</v>
@@ -16842,7 +16835,7 @@
         <v>197</v>
       </c>
       <c r="P55" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q55" t="s">
         <v>17</v>
@@ -16863,7 +16856,7 @@
         <v>200</v>
       </c>
       <c r="W55" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="X55" t="s">
         <v>17</v>
@@ -16884,7 +16877,7 @@
         <v>200</v>
       </c>
       <c r="AD55" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AE55" t="s">
         <v>17</v>
@@ -16905,7 +16898,7 @@
         <v>203</v>
       </c>
       <c r="AK55" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL55" t="s">
         <v>17</v>
@@ -16926,7 +16919,7 @@
         <v>203</v>
       </c>
       <c r="AR55" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AS55" t="s">
         <v>17</v>
@@ -16944,10 +16937,10 @@
         <v>17</v>
       </c>
       <c r="AX55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AY55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AZ55" t="s">
         <v>17</v>
@@ -16965,10 +16958,10 @@
         <v>17</v>
       </c>
       <c r="BE55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BF55" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BG55" t="s">
         <v>17</v>
@@ -17039,28 +17032,28 @@
       <c r="CC55" t="s">
         <v>17</v>
       </c>
-      <c r="CD55" s="56" t="s">
-        <v>284</v>
+      <c r="CD55" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:82">
       <c r="A56" t="s">
         <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G56" t="s">
         <v>153</v>
@@ -17087,10 +17080,10 @@
         <v>17</v>
       </c>
       <c r="O56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P56" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q56" t="s">
         <v>17</v>
@@ -17108,10 +17101,10 @@
         <v>17</v>
       </c>
       <c r="V56" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W56" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="X56" t="s">
         <v>17</v>
@@ -17287,28 +17280,28 @@
       <c r="CC56" t="s">
         <v>17</v>
       </c>
-      <c r="CD56" s="56" t="s">
-        <v>284</v>
+      <c r="CD56" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:82">
       <c r="A57" t="s">
         <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G57" t="s">
         <v>153</v>
@@ -17335,7 +17328,7 @@
         <v>17</v>
       </c>
       <c r="O57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P57" t="s">
         <v>168</v>
@@ -17356,10 +17349,10 @@
         <v>17</v>
       </c>
       <c r="V57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X57" t="s">
         <v>17</v>
@@ -17377,7 +17370,7 @@
         <v>17</v>
       </c>
       <c r="AC57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AD57" t="s">
         <v>168</v>
@@ -17398,7 +17391,7 @@
         <v>17</v>
       </c>
       <c r="AJ57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK57" t="s">
         <v>168</v>
@@ -17535,28 +17528,28 @@
       <c r="CC57" t="s">
         <v>17</v>
       </c>
-      <c r="CD57" s="56" t="s">
-        <v>284</v>
+      <c r="CD57" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:82">
       <c r="A58" t="s">
         <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G58" t="s">
         <v>153</v>
@@ -17583,7 +17576,7 @@
         <v>17</v>
       </c>
       <c r="O58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P58" t="s">
         <v>172</v>
@@ -17604,10 +17597,10 @@
         <v>17</v>
       </c>
       <c r="V58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X58" t="s">
         <v>17</v>
@@ -17625,7 +17618,7 @@
         <v>17</v>
       </c>
       <c r="AC58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AD58" t="s">
         <v>172</v>
@@ -17646,7 +17639,7 @@
         <v>17</v>
       </c>
       <c r="AJ58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK58" t="s">
         <v>172</v>
@@ -17783,28 +17776,28 @@
       <c r="CC58" t="s">
         <v>17</v>
       </c>
-      <c r="CD58" s="56" t="s">
-        <v>284</v>
+      <c r="CD58" s="55" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:82">
       <c r="A59" t="s">
         <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>331</v>
-      </c>
-      <c r="C59" s="53" t="s">
         <v>332</v>
       </c>
+      <c r="C59" s="52" t="s">
+        <v>333</v>
+      </c>
       <c r="D59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G59" t="s">
         <v>140</v>
@@ -18031,28 +18024,28 @@
       <c r="CC59" t="s">
         <v>17</v>
       </c>
-      <c r="CD59" s="56" t="s">
-        <v>335</v>
+      <c r="CD59" s="55" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:82">
       <c r="A60" t="s">
         <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>332</v>
+        <v>337</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>333</v>
       </c>
       <c r="D60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E60" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G60" t="s">
         <v>153</v>
@@ -18279,28 +18272,28 @@
       <c r="CC60" t="s">
         <v>17</v>
       </c>
-      <c r="CD60" s="56" t="s">
-        <v>335</v>
+      <c r="CD60" s="55" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:82">
       <c r="A61" t="s">
         <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>332</v>
+        <v>338</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>333</v>
       </c>
       <c r="D61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G61" t="s">
         <v>153</v>
@@ -18527,28 +18520,28 @@
       <c r="CC61" t="s">
         <v>17</v>
       </c>
-      <c r="CD61" s="56" t="s">
-        <v>335</v>
+      <c r="CD61" s="55" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:82">
       <c r="A62" t="s">
         <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
-      </c>
-      <c r="C62" s="53" t="s">
-        <v>332</v>
+        <v>339</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>333</v>
       </c>
       <c r="D62" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G62" t="s">
         <v>153</v>
@@ -18775,28 +18768,28 @@
       <c r="CC62" t="s">
         <v>17</v>
       </c>
-      <c r="CD62" s="56" t="s">
-        <v>335</v>
+      <c r="CD62" s="55" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:82">
       <c r="A63" t="s">
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
-      </c>
-      <c r="C63" s="53" t="s">
-        <v>332</v>
+        <v>340</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>333</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G63" t="s">
         <v>153</v>
@@ -19023,28 +19016,28 @@
       <c r="CC63" t="s">
         <v>17</v>
       </c>
-      <c r="CD63" s="56" t="s">
-        <v>335</v>
+      <c r="CD63" s="55" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:82">
       <c r="A64" t="s">
         <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>332</v>
+        <v>341</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>333</v>
       </c>
       <c r="D64" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G64" t="s">
         <v>153</v>
@@ -19271,28 +19264,28 @@
       <c r="CC64" t="s">
         <v>17</v>
       </c>
-      <c r="CD64" s="56" t="s">
-        <v>335</v>
+      <c r="CD64" s="55" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:82">
       <c r="A65" t="s">
         <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>332</v>
+        <v>342</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>333</v>
       </c>
       <c r="D65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E65" t="s">
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G65" t="s">
         <v>153</v>
@@ -19519,28 +19512,28 @@
       <c r="CC65" t="s">
         <v>17</v>
       </c>
-      <c r="CD65" s="56" t="s">
-        <v>335</v>
+      <c r="CD65" s="55" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:82">
       <c r="A66" t="s">
         <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" s="54" t="s">
         <v>343</v>
       </c>
+      <c r="C66" s="52" t="s">
+        <v>344</v>
+      </c>
       <c r="D66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E66" t="s">
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G66" t="s">
         <v>140</v>
@@ -19767,28 +19760,28 @@
       <c r="CC66" t="s">
         <v>17</v>
       </c>
-      <c r="CD66" s="56" t="s">
-        <v>346</v>
+      <c r="CD66" s="55" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="67" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:82">
       <c r="A67" t="s">
         <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>347</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>343</v>
+        <v>348</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>344</v>
       </c>
       <c r="D67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E67" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G67" t="s">
         <v>153</v>
@@ -20015,28 +20008,28 @@
       <c r="CC67" t="s">
         <v>17</v>
       </c>
-      <c r="CD67" s="56" t="s">
-        <v>346</v>
+      <c r="CD67" s="55" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="68" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:82">
       <c r="A68" t="s">
         <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>343</v>
+        <v>349</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>344</v>
       </c>
       <c r="D68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G68" t="s">
         <v>153</v>
@@ -20263,28 +20256,28 @@
       <c r="CC68" t="s">
         <v>17</v>
       </c>
-      <c r="CD68" s="56" t="s">
-        <v>346</v>
+      <c r="CD68" s="55" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:82">
       <c r="A69" t="s">
         <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>349</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>343</v>
+        <v>350</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>344</v>
       </c>
       <c r="D69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G69" t="s">
         <v>153</v>
@@ -20511,28 +20504,28 @@
       <c r="CC69" t="s">
         <v>17</v>
       </c>
-      <c r="CD69" s="56" t="s">
-        <v>346</v>
+      <c r="CD69" s="55" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="70" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:82">
       <c r="A70" t="s">
         <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
-      </c>
-      <c r="C70" s="52" t="s">
         <v>351</v>
       </c>
+      <c r="C70" s="51" t="s">
+        <v>352</v>
+      </c>
       <c r="D70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G70" t="s">
         <v>140</v>
@@ -20759,28 +20752,28 @@
       <c r="CC70" t="s">
         <v>17</v>
       </c>
-      <c r="CD70" s="56" t="s">
-        <v>354</v>
+      <c r="CD70" s="55" t="s">
+        <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:82">
       <c r="A71" t="s">
         <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
-      </c>
-      <c r="C71" s="53" t="s">
         <v>356</v>
       </c>
+      <c r="C71" s="52" t="s">
+        <v>357</v>
+      </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G71" t="s">
         <v>140</v>
@@ -21007,28 +21000,28 @@
       <c r="CC71" t="s">
         <v>17</v>
       </c>
-      <c r="CD71" s="56" t="s">
-        <v>359</v>
+      <c r="CD71" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:82">
       <c r="A72" t="s">
         <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
-      </c>
-      <c r="C72" s="53" t="s">
-        <v>356</v>
+        <v>361</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D72" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G72" t="s">
         <v>140</v>
@@ -21255,28 +21248,28 @@
       <c r="CC72" t="s">
         <v>17</v>
       </c>
-      <c r="CD72" s="56" t="s">
-        <v>359</v>
+      <c r="CD72" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:82">
       <c r="A73" t="s">
         <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
-      </c>
-      <c r="C73" s="53" t="s">
-        <v>356</v>
+        <v>362</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D73" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G73" t="s">
         <v>140</v>
@@ -21503,28 +21496,28 @@
       <c r="CC73" t="s">
         <v>17</v>
       </c>
-      <c r="CD73" s="56" t="s">
-        <v>359</v>
+      <c r="CD73" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:82">
       <c r="A74" t="s">
         <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
-      </c>
-      <c r="C74" s="53" t="s">
-        <v>356</v>
+        <v>363</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D74" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G74" t="s">
         <v>140</v>
@@ -21751,28 +21744,28 @@
       <c r="CC74" t="s">
         <v>17</v>
       </c>
-      <c r="CD74" s="56" t="s">
-        <v>359</v>
+      <c r="CD74" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:82">
       <c r="A75" t="s">
         <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>363</v>
-      </c>
-      <c r="C75" s="53" t="s">
-        <v>356</v>
+        <v>364</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G75" t="s">
         <v>140</v>
@@ -21999,28 +21992,28 @@
       <c r="CC75" t="s">
         <v>17</v>
       </c>
-      <c r="CD75" s="56" t="s">
-        <v>359</v>
+      <c r="CD75" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:82">
       <c r="A76" t="s">
         <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
-      </c>
-      <c r="C76" s="53" t="s">
-        <v>356</v>
+        <v>365</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E76" t="s">
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G76" t="s">
         <v>153</v>
@@ -22247,28 +22240,28 @@
       <c r="CC76" t="s">
         <v>17</v>
       </c>
-      <c r="CD76" s="56" t="s">
-        <v>359</v>
+      <c r="CD76" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:82">
       <c r="A77" t="s">
         <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>365</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>356</v>
+        <v>366</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D77" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G77" t="s">
         <v>153</v>
@@ -22495,28 +22488,28 @@
       <c r="CC77" t="s">
         <v>17</v>
       </c>
-      <c r="CD77" s="56" t="s">
-        <v>359</v>
+      <c r="CD77" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:82">
       <c r="A78" t="s">
         <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>356</v>
+        <v>367</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E78" t="s">
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G78" t="s">
         <v>153</v>
@@ -22743,28 +22736,28 @@
       <c r="CC78" t="s">
         <v>17</v>
       </c>
-      <c r="CD78" s="56" t="s">
-        <v>359</v>
+      <c r="CD78" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:82">
       <c r="A79" t="s">
         <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>356</v>
+        <v>368</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G79" t="s">
         <v>153</v>
@@ -22991,28 +22984,28 @@
       <c r="CC79" t="s">
         <v>17</v>
       </c>
-      <c r="CD79" s="56" t="s">
-        <v>359</v>
+      <c r="CD79" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:82">
       <c r="A80" t="s">
         <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
-      </c>
-      <c r="C80" s="53" t="s">
-        <v>356</v>
+        <v>369</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D80" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E80" t="s">
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G80" t="s">
         <v>153</v>
@@ -23239,28 +23232,28 @@
       <c r="CC80" t="s">
         <v>17</v>
       </c>
-      <c r="CD80" s="56" t="s">
-        <v>359</v>
+      <c r="CD80" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:82">
       <c r="A81" t="s">
         <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
-      </c>
-      <c r="C81" s="53" t="s">
-        <v>356</v>
+        <v>370</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D81" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G81" t="s">
         <v>153</v>
@@ -23487,28 +23480,28 @@
       <c r="CC81" t="s">
         <v>17</v>
       </c>
-      <c r="CD81" s="56" t="s">
-        <v>359</v>
+      <c r="CD81" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="82" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:82">
       <c r="A82" t="s">
         <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>370</v>
-      </c>
-      <c r="C82" s="53" t="s">
-        <v>356</v>
+        <v>371</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D82" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G82" t="s">
         <v>153</v>
@@ -23735,28 +23728,28 @@
       <c r="CC82" t="s">
         <v>17</v>
       </c>
-      <c r="CD82" s="56" t="s">
-        <v>359</v>
+      <c r="CD82" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:82">
       <c r="A83" t="s">
         <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>371</v>
-      </c>
-      <c r="C83" s="53" t="s">
-        <v>356</v>
+        <v>372</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G83" t="s">
         <v>153</v>
@@ -23983,28 +23976,28 @@
       <c r="CC83" t="s">
         <v>17</v>
       </c>
-      <c r="CD83" s="56" t="s">
-        <v>359</v>
+      <c r="CD83" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:82">
       <c r="A84" t="s">
         <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>372</v>
-      </c>
-      <c r="C84" s="53" t="s">
-        <v>356</v>
+        <v>373</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D84" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G84" t="s">
         <v>153</v>
@@ -24231,28 +24224,28 @@
       <c r="CC84" t="s">
         <v>17</v>
       </c>
-      <c r="CD84" s="56" t="s">
-        <v>359</v>
+      <c r="CD84" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:82">
       <c r="A85" t="s">
         <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
-      </c>
-      <c r="C85" s="53" t="s">
-        <v>356</v>
+        <v>374</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D85" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E85" t="s">
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G85" t="s">
         <v>153</v>
@@ -24479,28 +24472,28 @@
       <c r="CC85" t="s">
         <v>17</v>
       </c>
-      <c r="CD85" s="56" t="s">
-        <v>359</v>
+      <c r="CD85" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="86" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:82">
       <c r="A86" t="s">
         <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
-      </c>
-      <c r="C86" s="53" t="s">
-        <v>356</v>
+        <v>375</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G86" t="s">
         <v>153</v>
@@ -24727,28 +24720,28 @@
       <c r="CC86" t="s">
         <v>17</v>
       </c>
-      <c r="CD86" s="56" t="s">
-        <v>359</v>
+      <c r="CD86" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:82">
       <c r="A87" t="s">
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>375</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>356</v>
+        <v>376</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G87" t="s">
         <v>153</v>
@@ -24975,28 +24968,28 @@
       <c r="CC87" t="s">
         <v>17</v>
       </c>
-      <c r="CD87" s="56" t="s">
-        <v>359</v>
+      <c r="CD87" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:82">
       <c r="A88" t="s">
         <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
-      </c>
-      <c r="C88" s="53" t="s">
-        <v>356</v>
+        <v>377</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G88" t="s">
         <v>153</v>
@@ -25223,28 +25216,28 @@
       <c r="CC88" t="s">
         <v>17</v>
       </c>
-      <c r="CD88" s="56" t="s">
-        <v>359</v>
+      <c r="CD88" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="89" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:82">
       <c r="A89" t="s">
         <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>377</v>
-      </c>
-      <c r="C89" s="53" t="s">
-        <v>356</v>
+        <v>378</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D89" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E89" t="s">
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G89" t="s">
         <v>153</v>
@@ -25471,28 +25464,28 @@
       <c r="CC89" t="s">
         <v>17</v>
       </c>
-      <c r="CD89" s="56" t="s">
-        <v>359</v>
+      <c r="CD89" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:82">
       <c r="A90" t="s">
         <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
-      </c>
-      <c r="C90" s="53" t="s">
-        <v>356</v>
+        <v>379</v>
+      </c>
+      <c r="C90" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E90" t="s">
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G90" t="s">
         <v>153</v>
@@ -25719,28 +25712,28 @@
       <c r="CC90" t="s">
         <v>17</v>
       </c>
-      <c r="CD90" s="56" t="s">
-        <v>359</v>
+      <c r="CD90" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:82">
       <c r="A91" t="s">
         <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
-      </c>
-      <c r="C91" s="53" t="s">
-        <v>356</v>
+        <v>380</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G91" t="s">
         <v>153</v>
@@ -25967,28 +25960,28 @@
       <c r="CC91" t="s">
         <v>17</v>
       </c>
-      <c r="CD91" s="56" t="s">
-        <v>359</v>
+      <c r="CD91" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:82">
       <c r="A92" t="s">
         <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
-      </c>
-      <c r="C92" s="53" t="s">
-        <v>356</v>
+        <v>381</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D92" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G92" t="s">
         <v>153</v>
@@ -26215,28 +26208,28 @@
       <c r="CC92" t="s">
         <v>17</v>
       </c>
-      <c r="CD92" s="56" t="s">
-        <v>359</v>
+      <c r="CD92" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:82">
       <c r="A93" t="s">
         <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
-      </c>
-      <c r="C93" s="53" t="s">
-        <v>356</v>
+        <v>382</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D93" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E93" t="s">
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G93" t="s">
         <v>153</v>
@@ -26463,28 +26456,28 @@
       <c r="CC93" t="s">
         <v>17</v>
       </c>
-      <c r="CD93" s="56" t="s">
-        <v>359</v>
+      <c r="CD93" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:82">
       <c r="A94" t="s">
         <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>382</v>
-      </c>
-      <c r="C94" s="53" t="s">
-        <v>356</v>
+        <v>383</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>357</v>
       </c>
       <c r="D94" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G94" t="s">
         <v>153</v>
@@ -26711,28 +26704,28 @@
       <c r="CC94" t="s">
         <v>17</v>
       </c>
-      <c r="CD94" s="56" t="s">
-        <v>359</v>
+      <c r="CD94" s="55" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:82">
       <c r="A95" t="s">
         <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>383</v>
-      </c>
-      <c r="C95" s="54" t="s">
         <v>384</v>
       </c>
+      <c r="C95" s="53" t="s">
+        <v>385</v>
+      </c>
       <c r="D95" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G95" t="s">
         <v>140</v>
@@ -26959,28 +26952,28 @@
       <c r="CC95" t="s">
         <v>17</v>
       </c>
-      <c r="CD95" s="56" t="s">
-        <v>387</v>
+      <c r="CD95" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:82">
       <c r="A96" t="s">
         <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>388</v>
-      </c>
-      <c r="C96" s="54" t="s">
-        <v>384</v>
+        <v>389</v>
+      </c>
+      <c r="C96" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D96" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E96" t="s">
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G96" t="s">
         <v>140</v>
@@ -27207,28 +27200,28 @@
       <c r="CC96" t="s">
         <v>17</v>
       </c>
-      <c r="CD96" s="56" t="s">
-        <v>387</v>
+      <c r="CD96" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:82">
       <c r="A97" t="s">
         <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
-      </c>
-      <c r="C97" s="54" t="s">
-        <v>384</v>
+        <v>390</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D97" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E97" t="s">
         <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G97" t="s">
         <v>140</v>
@@ -27455,28 +27448,28 @@
       <c r="CC97" t="s">
         <v>17</v>
       </c>
-      <c r="CD97" s="56" t="s">
-        <v>387</v>
+      <c r="CD97" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="98" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:82">
       <c r="A98" t="s">
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>390</v>
-      </c>
-      <c r="C98" s="54" t="s">
-        <v>384</v>
+        <v>391</v>
+      </c>
+      <c r="C98" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D98" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G98" t="s">
         <v>140</v>
@@ -27703,28 +27696,28 @@
       <c r="CC98" t="s">
         <v>17</v>
       </c>
-      <c r="CD98" s="56" t="s">
-        <v>387</v>
+      <c r="CD98" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:82">
       <c r="A99" t="s">
         <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>391</v>
-      </c>
-      <c r="C99" s="54" t="s">
-        <v>384</v>
+        <v>392</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G99" t="s">
         <v>153</v>
@@ -27951,28 +27944,28 @@
       <c r="CC99" t="s">
         <v>17</v>
       </c>
-      <c r="CD99" s="56" t="s">
-        <v>387</v>
+      <c r="CD99" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="100" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:82">
       <c r="A100" t="s">
         <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>392</v>
-      </c>
-      <c r="C100" s="54" t="s">
-        <v>384</v>
+        <v>393</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D100" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G100" t="s">
         <v>153</v>
@@ -28199,28 +28192,28 @@
       <c r="CC100" t="s">
         <v>17</v>
       </c>
-      <c r="CD100" s="56" t="s">
-        <v>387</v>
+      <c r="CD100" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="101" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:82">
       <c r="A101" t="s">
         <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>393</v>
-      </c>
-      <c r="C101" s="54" t="s">
-        <v>384</v>
+        <v>394</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G101" t="s">
         <v>153</v>
@@ -28447,28 +28440,28 @@
       <c r="CC101" t="s">
         <v>17</v>
       </c>
-      <c r="CD101" s="56" t="s">
-        <v>387</v>
+      <c r="CD101" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="102" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:82">
       <c r="A102" t="s">
         <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>394</v>
-      </c>
-      <c r="C102" s="54" t="s">
-        <v>384</v>
+        <v>395</v>
+      </c>
+      <c r="C102" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D102" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G102" t="s">
         <v>153</v>
@@ -28695,28 +28688,28 @@
       <c r="CC102" t="s">
         <v>17</v>
       </c>
-      <c r="CD102" s="56" t="s">
-        <v>387</v>
+      <c r="CD102" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:82">
       <c r="A103" t="s">
         <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>395</v>
-      </c>
-      <c r="C103" s="54" t="s">
-        <v>384</v>
+        <v>396</v>
+      </c>
+      <c r="C103" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D103" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G103" t="s">
         <v>153</v>
@@ -28943,28 +28936,28 @@
       <c r="CC103" t="s">
         <v>17</v>
       </c>
-      <c r="CD103" s="56" t="s">
-        <v>387</v>
+      <c r="CD103" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="104" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:82">
       <c r="A104" t="s">
         <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
-      </c>
-      <c r="C104" s="54" t="s">
-        <v>384</v>
+        <v>397</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D104" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E104" t="s">
         <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G104" t="s">
         <v>153</v>
@@ -29191,28 +29184,28 @@
       <c r="CC104" t="s">
         <v>17</v>
       </c>
-      <c r="CD104" s="56" t="s">
-        <v>387</v>
+      <c r="CD104" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="105" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:82">
       <c r="A105" t="s">
         <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>397</v>
-      </c>
-      <c r="C105" s="54" t="s">
-        <v>384</v>
+        <v>398</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D105" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G105" t="s">
         <v>153</v>
@@ -29439,28 +29432,28 @@
       <c r="CC105" t="s">
         <v>17</v>
       </c>
-      <c r="CD105" s="56" t="s">
-        <v>387</v>
+      <c r="CD105" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="106" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:82">
       <c r="A106" t="s">
         <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>398</v>
-      </c>
-      <c r="C106" s="54" t="s">
-        <v>384</v>
+        <v>399</v>
+      </c>
+      <c r="C106" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D106" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G106" t="s">
         <v>153</v>
@@ -29687,28 +29680,28 @@
       <c r="CC106" t="s">
         <v>17</v>
       </c>
-      <c r="CD106" s="56" t="s">
-        <v>387</v>
+      <c r="CD106" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="107" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:82">
       <c r="A107" t="s">
         <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>399</v>
-      </c>
-      <c r="C107" s="54" t="s">
-        <v>384</v>
+        <v>400</v>
+      </c>
+      <c r="C107" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E107" t="s">
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G107" t="s">
         <v>153</v>
@@ -29935,28 +29928,28 @@
       <c r="CC107" t="s">
         <v>17</v>
       </c>
-      <c r="CD107" s="56" t="s">
-        <v>387</v>
+      <c r="CD107" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="108" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:82">
       <c r="A108" t="s">
         <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>400</v>
-      </c>
-      <c r="C108" s="54" t="s">
-        <v>384</v>
+        <v>401</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D108" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G108" t="s">
         <v>153</v>
@@ -30183,28 +30176,28 @@
       <c r="CC108" t="s">
         <v>17</v>
       </c>
-      <c r="CD108" s="56" t="s">
-        <v>387</v>
+      <c r="CD108" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="109" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:82">
       <c r="A109" t="s">
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>401</v>
-      </c>
-      <c r="C109" s="54" t="s">
-        <v>384</v>
+        <v>402</v>
+      </c>
+      <c r="C109" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G109" t="s">
         <v>153</v>
@@ -30431,28 +30424,28 @@
       <c r="CC109" t="s">
         <v>17</v>
       </c>
-      <c r="CD109" s="56" t="s">
-        <v>387</v>
+      <c r="CD109" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="110" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:82">
       <c r="A110" t="s">
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
-      </c>
-      <c r="C110" s="54" t="s">
-        <v>384</v>
+        <v>403</v>
+      </c>
+      <c r="C110" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E110" t="s">
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G110" t="s">
         <v>153</v>
@@ -30679,28 +30672,28 @@
       <c r="CC110" t="s">
         <v>17</v>
       </c>
-      <c r="CD110" s="56" t="s">
-        <v>387</v>
+      <c r="CD110" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="111" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:82">
       <c r="A111" t="s">
         <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
-      </c>
-      <c r="C111" s="54" t="s">
-        <v>384</v>
+        <v>404</v>
+      </c>
+      <c r="C111" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D111" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E111" t="s">
         <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G111" t="s">
         <v>153</v>
@@ -30927,28 +30920,28 @@
       <c r="CC111" t="s">
         <v>17</v>
       </c>
-      <c r="CD111" s="56" t="s">
-        <v>387</v>
+      <c r="CD111" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="112" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:82">
       <c r="A112" t="s">
         <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>404</v>
-      </c>
-      <c r="C112" s="54" t="s">
-        <v>384</v>
+        <v>405</v>
+      </c>
+      <c r="C112" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D112" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G112" t="s">
         <v>153</v>
@@ -31175,28 +31168,28 @@
       <c r="CC112" t="s">
         <v>17</v>
       </c>
-      <c r="CD112" s="56" t="s">
-        <v>387</v>
+      <c r="CD112" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="113" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:82">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
-      </c>
-      <c r="C113" s="54" t="s">
-        <v>384</v>
+        <v>406</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="D113" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G113" t="s">
         <v>153</v>
@@ -31423,8 +31416,8 @@
       <c r="CC113" t="s">
         <v>17</v>
       </c>
-      <c r="CD113" s="56" t="s">
-        <v>387</v>
+      <c r="CD113" s="55" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -31440,7 +31433,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
@@ -31544,7 +31537,7 @@
     <col min="102" max="102" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" ht="30">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -31558,7 +31551,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
@@ -31572,13 +31565,13 @@
         <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -31586,13 +31579,13 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:102" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" ht="30">
       <c r="A4" s="20" t="s">
         <v>56</v>
       </c>
@@ -31600,337 +31593,337 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="1:102" ht="15.75">
+      <c r="A5" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="E5" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="J5" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="K5" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="M5" s="47" t="s">
+      <c r="L5" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="N5" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="O5" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="P5" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="Q5" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="R5" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="T5" s="45" t="s">
+      <c r="S5" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="T5" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="V5" s="45" t="s">
+      <c r="U5" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="W5" s="45" t="s">
+      <c r="V5" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="X5" s="45" t="s">
+      <c r="W5" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="Y5" s="45" t="s">
+      <c r="X5" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="Z5" s="45" t="s">
+      <c r="Y5" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="AA5" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB5" s="45" t="s">
+      <c r="Z5" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="AC5" s="45" t="s">
+      <c r="AA5" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB5" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="AD5" s="45" t="s">
+      <c r="AC5" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="AE5" s="45" t="s">
+      <c r="AD5" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AF5" s="45" t="s">
+      <c r="AE5" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AG5" s="45" t="s">
+      <c r="AF5" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG5" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="AH5" s="45" t="s">
+      <c r="AH5" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="AI5" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="AJ5" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="AK5" s="45" t="s">
+      <c r="AI5" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="AL5" s="45" t="s">
+      <c r="AJ5" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="AM5" s="45" t="s">
+      <c r="AK5" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="AL5" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM5" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="AN5" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="AO5" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="AP5" s="45" t="s">
+      <c r="AN5" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="AQ5" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="AR5" s="45" t="s">
+      <c r="AO5" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="AS5" s="45" t="s">
+      <c r="AP5" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="AT5" s="45" t="s">
+      <c r="AQ5" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR5" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="AU5" s="45" t="s">
+      <c r="AS5" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="AV5" s="45" t="s">
+      <c r="AT5" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="AW5" s="45" t="s">
+      <c r="AU5" s="44" t="s">
         <v>451</v>
       </c>
-      <c r="AX5" s="45" t="s">
+      <c r="AV5" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="AY5" s="45" t="s">
+      <c r="AW5" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="AZ5" s="45" t="s">
+      <c r="AX5" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="BA5" s="45" t="s">
+      <c r="AY5" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="BB5" s="45" t="s">
+      <c r="AZ5" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="BC5" s="45" t="s">
+      <c r="BA5" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="BD5" s="45" t="s">
+      <c r="BB5" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="BE5" s="45" t="s">
+      <c r="BC5" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="BF5" s="45" t="s">
+      <c r="BD5" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="BE5" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="BF5" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="BG5" s="45" t="s">
+      <c r="BG5" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="BH5" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI5" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="BJ5" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="BK5" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL5" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="BM5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="BN5" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="BO5" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="BP5" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ5" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="BR5" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="BS5" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="BT5" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="BU5" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="BV5" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="BW5" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="BX5" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="BY5" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="BZ5" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="CA5" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="CB5" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="CC5" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="CD5" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="CE5" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="CF5" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="CG5" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="CH5" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="CI5" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="CJ5" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="CK5" s="44" t="s">
+        <v>480</v>
+      </c>
+      <c r="CL5" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="BH5" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="BI5" s="45" t="s">
-        <v>428</v>
-      </c>
-      <c r="BJ5" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="BK5" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL5" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="BM5" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="BN5" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="BO5" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="BP5" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="BQ5" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="BR5" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="BS5" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="BT5" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="BU5" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="BV5" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="BW5" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="BX5" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="BY5" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="BZ5" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="CA5" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="CB5" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="CC5" s="45" t="s">
-        <v>428</v>
-      </c>
-      <c r="CD5" s="45" t="s">
-        <v>476</v>
-      </c>
-      <c r="CE5" s="45" t="s">
-        <v>477</v>
-      </c>
-      <c r="CF5" s="45" t="s">
-        <v>478</v>
-      </c>
-      <c r="CG5" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="CH5" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="CI5" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="CJ5" s="45" t="s">
-        <v>457</v>
-      </c>
-      <c r="CK5" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="CL5" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="CM5" s="49" t="s">
-        <v>480</v>
-      </c>
-      <c r="CN5" s="49" t="s">
+      <c r="CM5" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="CN5" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="CO5" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="CP5" s="49" t="s">
+      <c r="CO5" s="48" t="s">
         <v>482</v>
       </c>
-      <c r="CQ5" s="49" t="s">
+      <c r="CP5" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="CR5" s="49" t="s">
+      <c r="CQ5" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="CS5" s="49" t="s">
+      <c r="CR5" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="CT5" s="49" t="s">
+      <c r="CS5" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="CU5" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="CV5" s="50" t="s">
+      <c r="CT5" s="48" t="s">
         <v>487</v>
       </c>
+      <c r="CU5" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="CV5" s="49" t="s">
+        <v>488</v>
+      </c>
       <c r="CW5" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="CX5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102">
       <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>17</v>
       </c>
     </row>
